--- a/URS/DbLayouts/L5-管理性作業/CollRemind.xlsx
+++ b/URS/DbLayouts/L5-管理性作業/CollRemind.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L5-管理性作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C994B9-C27A-4679-83AE-694DD66E6035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5F0EE-276C-4975-9DDC-251B21D71A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="66">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -263,6 +263,10 @@
   </si>
   <si>
     <t>0.已到期 1.有效 4.已刪除 6.已解除</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>詢問過user意見，時間存入4碼即可</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -447,7 +451,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -543,6 +547,9 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -886,7 +893,7 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1149,7 +1156,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:7">
       <c r="A17" s="19">
         <v>9</v>
       </c>
@@ -1166,7 +1173,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:7">
       <c r="A18" s="19">
         <v>10</v>
       </c>
@@ -1179,11 +1186,14 @@
       <c r="D18" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="E18" s="32">
+        <v>4</v>
+      </c>
+      <c r="G18" s="27" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="19">
         <v>11</v>
       </c>
@@ -1200,7 +1210,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:7">
       <c r="A20" s="19">
         <v>12</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:7">
       <c r="A21" s="19">
         <v>13</v>
       </c>
@@ -1232,7 +1242,7 @@
       </c>
       <c r="E21" s="26"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:7">
       <c r="A22" s="19">
         <v>14</v>
       </c>
@@ -1249,7 +1259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:7">
       <c r="A23" s="19">
         <v>15</v>
       </c>
@@ -1264,7 +1274,7 @@
       </c>
       <c r="E23" s="26"/>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:7">
       <c r="A24" s="19">
         <v>16</v>
       </c>
